--- a/Result/VAR/Service/SGP.xlsx
+++ b/Result/VAR/Service/SGP.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,353 +460,363 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7067085195622482</v>
+        <v>60.95365071456347</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.439149982754564</v>
+        <v>61.8195443180603</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4651319214477923</v>
+        <v>62.24993141444148</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B5" t="n">
-        <v>3.769446111928715</v>
+        <v>61.26987512033323</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.632062440087203</v>
+        <v>61.12047222365608</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7624588897688938</v>
+        <v>61.97603163665062</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.554312265802132</v>
+        <v>61.66353022464727</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B9" t="n">
-        <v>2.109414643705151</v>
+        <v>61.97972607560371</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B10" t="n">
-        <v>1.053653029410654</v>
+        <v>61.64512206397297</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.213097346495431</v>
+        <v>62.09122112212628</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B12" t="n">
-        <v>1.009881025659084</v>
+        <v>62.89709846252617</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0986486075925157</v>
+        <v>62.25863325297033</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2794700196887803</v>
+        <v>62.27135693704287</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.03982037953956308</v>
+        <v>61.99145082286896</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6747282613180019</v>
+        <v>62.01860559951943</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09124023614277377</v>
+        <v>61.93121223755041</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.4591839253903203</v>
+        <v>62.41476452945855</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B19" t="n">
-        <v>0.254751377118275</v>
+        <v>62.71028554784527</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.751781859748235</v>
+        <v>63.03850128409395</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="n">
-        <v>5.333875614062443</v>
+        <v>62.79951243648566</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.545793045062155</v>
+        <v>62.88720378517831</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0115519183329269</v>
+        <v>64.31485821230103</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.647919606323093</v>
+        <v>64.51822710068943</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B25" t="n">
-        <v>2.276759326145751</v>
+        <v>64.21623994776404</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.1969395740882831</v>
+        <v>64.46882645137748</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3596247793055483</v>
+        <v>65.40636586527529</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B28" t="n">
-        <v>1.144518801426756</v>
+        <v>65.95471166995229</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.649705485905471</v>
+        <v>67.34865122902352</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1793397912728807</v>
+        <v>69.04289359310661</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B31" t="n">
-        <v>1.342158984494418</v>
+        <v>68.68739601554691</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.9941031241671112</v>
+        <v>68.54078951276723</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="n">
-        <v>1.368175693348988</v>
+        <v>69.41404839704032</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.970659478462281</v>
+        <v>69.72868080977396</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02258788330316008</v>
+        <v>70.38165332527123</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B36" t="n">
-        <v>1.107118423905504</v>
+        <v>69.92179580068394</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B37" t="n">
+        <v>69.82630350559577</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -854,7 +864,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.06425769431654184</v>
+        <v>70.317884850025</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -864,7 +874,7 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1178095372207</v>
+        <v>70.29983528181613</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -874,7 +884,7 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1266142300344254</v>
+        <v>70.42744403816261</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -884,7 +894,7 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3137856107934254</v>
+        <v>70.64010587333817</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -894,7 +904,7 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2487567205287795</v>
+        <v>70.88925799956439</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -910,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,423 +952,413 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B2" t="n">
-        <v>59.89965055509169</v>
+        <v>61.03458975610459</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B3" t="n">
-        <v>60.50606220347918</v>
+        <v>61.93727853491535</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B4" t="n">
-        <v>61.81918237142892</v>
+        <v>62.29648723528988</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B5" t="n">
-        <v>60.6931525566241</v>
+        <v>61.28645049894657</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B6" t="n">
-        <v>60.03225466326707</v>
+        <v>61.1707887784693</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>63.14080288183875</v>
+        <v>61.86306153309339</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B8" t="n">
-        <v>62.61728866032323</v>
+        <v>61.5698312519966</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B9" t="n">
-        <v>62.85623332857661</v>
+        <v>61.91065119412164</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B10" t="n">
-        <v>61.54086573102785</v>
+        <v>61.64044896513014</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B11" t="n">
-        <v>62.33491277718424</v>
+        <v>62.04357613692963</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B12" t="n">
-        <v>64.18261285275129</v>
+        <v>62.80782942276345</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="n">
-        <v>62.81721558182291</v>
+        <v>62.18863323403155</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B14" t="n">
-        <v>62.46169933655361</v>
+        <v>62.20118406430418</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B15" t="n">
-        <v>62.00753448369179</v>
+        <v>61.94060784045826</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B16" t="n">
-        <v>61.83283965051876</v>
+        <v>61.99788548399147</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B17" t="n">
-        <v>61.61832443780616</v>
+        <v>61.92393327572724</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B18" t="n">
-        <v>62.07853748641156</v>
+        <v>62.41200312521156</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B19" t="n">
-        <v>62.62999077115974</v>
+        <v>62.70277123528523</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B20" t="n">
-        <v>62.7222601305176</v>
+        <v>63.01387683137063</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="n">
-        <v>63.06928086699373</v>
+        <v>62.77288123908905</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B22" t="n">
-        <v>60.66451974372163</v>
+        <v>63.0119222186326</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B23" t="n">
-        <v>63.59363423451197</v>
+        <v>64.36519091027596</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B24" t="n">
-        <v>63.97695568024015</v>
+        <v>64.5045121411609</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B25" t="n">
-        <v>64.34872520763541</v>
+        <v>64.18285550698647</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B26" t="n">
-        <v>63.07257512870758</v>
+        <v>64.5664099915215</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B27" t="n">
-        <v>64.07318437592549</v>
+        <v>65.48630881746756</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B28" t="n">
-        <v>64.87685404905513</v>
+        <v>66.0630589784264</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B29" t="n">
-        <v>66.04014850149031</v>
+        <v>67.48430624661624</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B30" t="n">
-        <v>68.34796175535224</v>
+        <v>69.07672587453733</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B31" t="n">
-        <v>68.00606952330871</v>
+        <v>68.71720311259307</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B32" t="n">
-        <v>67.84351708253806</v>
+        <v>68.59949510462452</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="n">
-        <v>69.02312362626182</v>
+        <v>69.44301761567756</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B34" t="n">
-        <v>69.20862704581847</v>
+        <v>69.77783638719501</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="n">
-        <v>70.76230615872412</v>
+        <v>70.38107879315093</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B36" t="n">
-        <v>70.34532579316748</v>
+        <v>69.91540894406862</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B37" t="n">
-        <v>69.950933310914</v>
+        <v>69.8429840469887</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B38" t="n">
-        <v>70.66365925256602</v>
+        <v>70.32136847421904</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B39" t="n">
-        <v>70.34711025610673</v>
+        <v>69.83199500032224</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B40" t="n">
-        <v>69.3553782524158</v>
+        <v>69.8444964740936</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B41" t="n">
-        <v>70.79420381754008</v>
+        <v>70.76805854583635</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B42" t="n">
-        <v>71.66443327187299</v>
+        <v>70.47009508756929</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B43" t="n">
-        <v>69.44880106361298</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1406,7 +1406,7 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4760337033387586</v>
+        <v>68.5981678986218</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1416,7 +1416,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4360960162138353</v>
+        <v>67.97879844288904</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1426,7 +1426,7 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.08709022297525987</v>
+        <v>67.84129624785861</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1436,7 +1436,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3640356799081268</v>
+        <v>67.72691535324546</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>0.430851397422731</v>
+        <v>67.43374798894465</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
